--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-02-sorting-using-a-custom-list.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-02-sorting-using-a-custom-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{DE23428B-D371-4DFD-8310-85ED98B8BE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D447471-9410-4C8E-935C-921B2A30E0C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F03C9C-5C36-4CA2-A9F5-F5C2D0DB8E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7C396D31-C8A3-4658-9B88-F52DB7AF059F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C396D31-C8A3-4658-9B88-F52DB7AF059F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting Custom Lists" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>Sorting Using a Custom List</t>
+  </si>
+  <si>
+    <t>Add a list</t>
+  </si>
+  <si>
+    <t>File -&gt; Option -&gt; Advanced -&gt; General -&gt; Edit Customer List</t>
   </si>
 </sst>
 </file>
@@ -758,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DA2BD8-979F-4FA5-AF2F-D43BBF72F344}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -775,12 +781,12 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -809,439 +815,454 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="1">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="1">
-        <v>103</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,26 +1294,24 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I18">
-    <sortCondition ref="C4:C18"/>
-    <sortCondition ref="G4:G18"/>
-    <sortCondition descending="1" ref="F4:F18"/>
+    <sortCondition ref="A4:A18" customList="Mr,Miss,Mrs"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{05FC1A35-419C-4AF7-A24E-A3C6D14B5AAF}"/>
-    <hyperlink ref="I12" r:id="rId2" xr:uid="{C833E3A1-689B-4ED8-B017-2050EBA1B96F}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{6A1F4A38-7DCC-462C-A475-BCAA04716558}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{0C0F0DEE-CC7A-4B44-9C68-2788568B1B6D}"/>
-    <hyperlink ref="I15" r:id="rId5" xr:uid="{5E48E312-C031-4A35-BA74-7E1CE70A8709}"/>
-    <hyperlink ref="I18" r:id="rId6" xr:uid="{40CD7324-8EAB-4C9A-A4A2-9AD67391E333}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{9D760874-BBCA-4AF5-B04C-2BACB7C03D95}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{78E8BA72-51EE-47B1-80C5-71C95C9F5DDC}"/>
-    <hyperlink ref="I6" r:id="rId9" xr:uid="{0BE6CAF2-BD65-4A56-B1D5-EB71F59575BB}"/>
-    <hyperlink ref="I9" r:id="rId10" xr:uid="{203B9238-99F2-485A-ABA9-5123BBDF6039}"/>
-    <hyperlink ref="I11" r:id="rId11" xr:uid="{16F441FC-FB72-44EB-AE9F-A0E9B139E879}"/>
-    <hyperlink ref="I17" r:id="rId12" xr:uid="{34BBC0F0-29DE-4302-8F86-1632901D16D6}"/>
-    <hyperlink ref="I16" r:id="rId13" xr:uid="{F9F043E1-C9D4-44D8-9945-9BA59B301FDA}"/>
-    <hyperlink ref="I14" r:id="rId14" xr:uid="{374EB3C4-0C70-46E6-ACAA-EB0F2E4B9C3B}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{3164B401-8FD3-4D33-98CE-E289405C87B9}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{05FC1A35-419C-4AF7-A24E-A3C6D14B5AAF}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{C833E3A1-689B-4ED8-B017-2050EBA1B96F}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{6A1F4A38-7DCC-462C-A475-BCAA04716558}"/>
+    <hyperlink ref="I14" r:id="rId4" xr:uid="{0C0F0DEE-CC7A-4B44-9C68-2788568B1B6D}"/>
+    <hyperlink ref="I17" r:id="rId5" xr:uid="{5E48E312-C031-4A35-BA74-7E1CE70A8709}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{40CD7324-8EAB-4C9A-A4A2-9AD67391E333}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{9D760874-BBCA-4AF5-B04C-2BACB7C03D95}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{78E8BA72-51EE-47B1-80C5-71C95C9F5DDC}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{0BE6CAF2-BD65-4A56-B1D5-EB71F59575BB}"/>
+    <hyperlink ref="I15" r:id="rId10" xr:uid="{203B9238-99F2-485A-ABA9-5123BBDF6039}"/>
+    <hyperlink ref="I16" r:id="rId11" xr:uid="{16F441FC-FB72-44EB-AE9F-A0E9B139E879}"/>
+    <hyperlink ref="I12" r:id="rId12" xr:uid="{34BBC0F0-29DE-4302-8F86-1632901D16D6}"/>
+    <hyperlink ref="I18" r:id="rId13" xr:uid="{F9F043E1-C9D4-44D8-9945-9BA59B301FDA}"/>
+    <hyperlink ref="I9" r:id="rId14" xr:uid="{374EB3C4-0C70-46E6-ACAA-EB0F2E4B9C3B}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{3164B401-8FD3-4D33-98CE-E289405C87B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
